--- a/Shortened_Data.xlsx
+++ b/Shortened_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinkapner/Documents/Masters/Classes/Computational_Bio/Project/Code/Comp167TempoProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2837C712-B4CE-1A4A-9785-9A6C943EDEB2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF39411A-585E-D647-A93A-51BBC459B2A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="27640" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-320" yWindow="460" windowWidth="27640" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Median_Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
   <si>
     <t>DDR1</t>
   </si>
@@ -1197,6 +1197,9 @@
   <si>
     <t>GSM606626</t>
   </si>
+  <si>
+    <t>SEPT2</t>
+  </si>
 </sst>
 </file>
 
@@ -1704,10 +1707,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2065,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="D301" sqref="D301"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2075,286 +2078,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BL1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BN1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BO1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BP1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BR1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BS1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BT1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BU1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BV1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BW1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BX1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BY1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CA1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CB1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CC1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CD1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CE1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CF1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CG1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CH1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CI1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CK1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CL1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CM1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CN1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CO1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CP1" s="1" t="s">
         <v>391</v>
       </c>
     </row>
@@ -14003,8 +14006,8 @@
       </c>
     </row>
     <row r="43" spans="1:94" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>43345</v>
+      <c r="A43" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="B43">
         <v>10.473305499999899</v>
